--- a/SuppXLS/Scen_STO_BaseConstraints.xlsx
+++ b/SuppXLS/Scen_STO_BaseConstraints.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26924"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\TIMES\TIMES-FRAN\SuppXLS\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Veda\Veda_models\Master thesis model 2\SuppXLS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CF086A12-67F8-4974-B493-243C4B51A21F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{138A090C-A6CB-473D-9823-03062CE5EFBF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17520" xr2:uid="{0417E306-F4FC-4232-89E9-93186F9EB74E}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{0417E306-F4FC-4232-89E9-93186F9EB74E}"/>
   </bookViews>
   <sheets>
     <sheet name="UC_STO Fran Ei" sheetId="2" r:id="rId1"/>
@@ -77,7 +77,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="37">
   <si>
     <t>UC_N</t>
   </si>
@@ -112,49 +112,82 @@
     <t>UC - Each Region/Period</t>
   </si>
   <si>
-    <t>MWh/MW</t>
-  </si>
-  <si>
-    <t>Fix the share of power input capacity (MW) relative to the power output capacity (MW)</t>
-  </si>
-  <si>
-    <t>Unit conversion factor</t>
-  </si>
-  <si>
-    <t>MW/MW</t>
-  </si>
-  <si>
-    <t>Charging capacity (PI) in relation to 1 MW discharging capacity (PO)</t>
-  </si>
-  <si>
-    <t>Energy capacity of the storage (E) in relation to 1 MW discharging capacity</t>
-  </si>
-  <si>
-    <t>Values from the energy technology catalogue for storage</t>
-  </si>
-  <si>
-    <t>Fix the share of storage capacity (PJ) relative to the power output capacity (MW)</t>
-  </si>
-  <si>
     <t>UC_RHSRT~FX~2020</t>
   </si>
   <si>
     <t>UC_RHSRT~FX~0</t>
   </si>
   <si>
-    <t>UC_CAP~2020</t>
-  </si>
-  <si>
-    <t>TJ/MWh</t>
-  </si>
-  <si>
-    <t>GRDSTOLIONONELCMIDN0_PO</t>
-  </si>
-  <si>
     <t>\I:</t>
   </si>
   <si>
     <t>round to:</t>
+  </si>
+  <si>
+    <t>UC_CAP~2030</t>
+  </si>
+  <si>
+    <t>ELCRNWIN01</t>
+  </si>
+  <si>
+    <t>ELCRNWIN01, ELCRNWIN02</t>
+  </si>
+  <si>
+    <t>Platform_electrical_equipment</t>
+  </si>
+  <si>
+    <t>SUPH2ALKC2N</t>
+  </si>
+  <si>
+    <t>SUPH2ALKC2N,SUPH2PEMC2N,SUPH2SOEC2N</t>
+  </si>
+  <si>
+    <t>Platfrom_electrolisis</t>
+  </si>
+  <si>
+    <t>SUPELCAMM01</t>
+  </si>
+  <si>
+    <t>DAC_plant</t>
+  </si>
+  <si>
+    <t>PLANTMETH01</t>
+  </si>
+  <si>
+    <t>SUPKRECO2C1</t>
+  </si>
+  <si>
+    <t>m2/GW</t>
+  </si>
+  <si>
+    <t>ELCRNWIN02</t>
+  </si>
+  <si>
+    <t>SUPH2PEMC2N</t>
+  </si>
+  <si>
+    <t>SUPH2SOEC2N</t>
+  </si>
+  <si>
+    <t>m2/kta</t>
+  </si>
+  <si>
+    <t>RELATION OF SPACE FOR ELECTRICITY</t>
+  </si>
+  <si>
+    <t>RELATION OF SPACE FOR ELECTROLISIS</t>
+  </si>
+  <si>
+    <t>RELATION OF SPACE FOR AMMONIA</t>
+  </si>
+  <si>
+    <t>RELATION OF SPACE FOR DAC</t>
+  </si>
+  <si>
+    <t>RELATION OF SPACE FOR METHANOL</t>
+  </si>
+  <si>
+    <t>RELATION OF SPACE FOR JETFUEL</t>
   </si>
 </sst>
 </file>
@@ -164,7 +197,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="\Te\x\t"/>
   </numFmts>
-  <fonts count="9" x14ac:knownFonts="1">
+  <fonts count="10" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -217,8 +250,13 @@
       <name val="Arial"/>
       <family val="2"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <name val="Arial Narrow"/>
+      <family val="2"/>
+    </font>
   </fonts>
-  <fills count="5">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -243,6 +281,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -253,15 +297,16 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="6">
+  <cellStyleXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="24">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="5"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -285,7 +330,6 @@
       <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="164" fontId="5" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="5" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -294,13 +338,23 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="0" xfId="2" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="6"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="6" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" xfId="2" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="2"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="6">
+  <cellStyles count="7">
     <cellStyle name="20% - Accent5" xfId="1" builtinId="46"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Normal 10" xfId="2" xr:uid="{83AA543A-711E-4B5A-B44D-3089FDFDC482}"/>
     <cellStyle name="Normal 2" xfId="4" xr:uid="{803309EF-8ACC-4C23-A1E2-6659E4252413}"/>
     <cellStyle name="Normal 4" xfId="3" xr:uid="{07727939-E773-4575-8956-0BFD0923E11C}"/>
+    <cellStyle name="Normal 42" xfId="6" xr:uid="{13D77019-6388-4F20-AC34-5AB3CE50144F}"/>
     <cellStyle name="Normale_Scen_UC_IND-StrucConst" xfId="5" xr:uid="{2EF9F1A8-AD09-4B21-B5B8-48BF67CD4866}"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -11087,49 +11141,49 @@
   <dimension ref="A1:AK84"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="C9" sqref="C9"/>
+      <selection activeCell="G19" sqref="G19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="9.140625" style="2"/>
-    <col min="2" max="2" width="44.5703125" style="2" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="34.5703125" style="2" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="15.42578125" style="2" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="22.5703125" style="2" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="9.109375" style="2"/>
+    <col min="2" max="2" width="58.6640625" style="2" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="34.5546875" style="2" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="30.33203125" style="2" customWidth="1"/>
+    <col min="5" max="5" width="22.5546875" style="2" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="19" style="2" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="82.42578125" style="13" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="9.140625" style="2"/>
-    <col min="9" max="9" width="12.85546875" style="2" customWidth="1"/>
-    <col min="10" max="10" width="13.7109375" style="2" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="72.140625" style="2" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="82.44140625" style="12" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="9.109375" style="2"/>
+    <col min="9" max="9" width="12.88671875" style="2" customWidth="1"/>
+    <col min="10" max="10" width="13.6640625" style="2" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="25" style="2" customWidth="1"/>
     <col min="12" max="12" width="11" style="2" bestFit="1" customWidth="1"/>
-    <col min="13" max="16384" width="9.140625" style="2"/>
+    <col min="13" max="16384" width="9.109375" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:37" ht="15" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:37" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="C1" s="12" t="s">
-        <v>25</v>
+      <c r="C1" s="11" t="s">
+        <v>14</v>
       </c>
-      <c r="D1" s="12">
+      <c r="D1" s="11">
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:37" ht="15" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:37" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A2" s="1"/>
       <c r="B2" s="2" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="3" spans="1:37" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:37" x14ac:dyDescent="0.25">
       <c r="B3" s="2" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="5" spans="1:37" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:37" x14ac:dyDescent="0.25">
       <c r="B5" s="3" t="str">
         <f>"~UC_T: "</f>
         <v xml:space="preserve">~UC_T: </v>
@@ -11137,9 +11191,9 @@
       <c r="C5" s="4"/>
       <c r="E5" s="4"/>
       <c r="F5" s="5"/>
-      <c r="G5" s="14"/>
+      <c r="G5" s="13"/>
     </row>
-    <row r="6" spans="1:37" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:37" x14ac:dyDescent="0.25">
       <c r="B6" s="6" t="s">
         <v>0</v>
       </c>
@@ -11147,22 +11201,22 @@
         <v>1</v>
       </c>
       <c r="D6" s="7" t="s">
-        <v>21</v>
+        <v>15</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>19</v>
+        <v>11</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>20</v>
+        <v>12</v>
       </c>
       <c r="G6" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="I6" s="15"/>
-      <c r="J6" s="15"/>
-      <c r="K6" s="15"/>
+      <c r="I6" s="14"/>
+      <c r="J6" s="14"/>
+      <c r="K6" s="14"/>
     </row>
-    <row r="7" spans="1:37" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:37" x14ac:dyDescent="0.25">
       <c r="B7" s="8" t="s">
         <v>3</v>
       </c>
@@ -11179,29 +11233,35 @@
       <c r="G7" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="I7" s="15" t="s">
+      <c r="I7" s="14"/>
+      <c r="J7" s="14"/>
+      <c r="K7" s="14"/>
+    </row>
+    <row r="8" spans="1:37" x14ac:dyDescent="0.25">
+      <c r="B8" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="I8" s="15" t="s">
+        <v>16</v>
+      </c>
+      <c r="J8"/>
+      <c r="K8" s="20">
+        <v>3180</v>
+      </c>
+      <c r="L8" s="20" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="9" spans="1:37" x14ac:dyDescent="0.25">
+      <c r="B9" s="10" t="str">
+        <f>"UC_CAP_"&amp;C9</f>
+        <v>UC_CAP_ELCRNWIN01, ELCRNWIN02</v>
+      </c>
+      <c r="C9" s="15" t="s">
         <v>17</v>
       </c>
-      <c r="J7" s="15"/>
-      <c r="K7" s="15"/>
-    </row>
-    <row r="8" spans="1:37" x14ac:dyDescent="0.2">
-      <c r="B8" s="10" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="9" spans="1:37" x14ac:dyDescent="0.2">
-      <c r="B9" s="10" t="str">
-        <f>"UC_CAP_"&amp;C9</f>
-        <v>UC_CAP_GRDSTOLIONONELCMIDN0_PI</v>
-      </c>
-      <c r="C9" s="10" t="str">
-        <f>LEFT(C10,FIND("_",C10))&amp;"PI"</f>
-        <v>GRDSTOLIONONELCMIDN0_PI</v>
-      </c>
       <c r="D9" s="2">
-        <f>ROUND(1/J9,$D$1)</f>
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="E9" s="2">
         <v>0</v>
@@ -11209,41 +11269,49 @@
       <c r="F9" s="2">
         <v>13</v>
       </c>
-      <c r="G9" s="13" t="s">
-        <v>12</v>
+      <c r="G9" s="12" t="s">
+        <v>31</v>
       </c>
-      <c r="I9" s="2" t="s">
-        <v>14</v>
+      <c r="I9" t="s">
+        <v>27</v>
       </c>
-      <c r="J9" s="12">
-        <f>3/18</f>
-        <v>0.16666666666666666</v>
+      <c r="J9"/>
+      <c r="K9" s="20">
+        <v>3180</v>
       </c>
-      <c r="K9" s="2" t="s">
-        <v>15</v>
+      <c r="L9" s="20" t="s">
+        <v>26</v>
       </c>
     </row>
-    <row r="10" spans="1:37" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:37" x14ac:dyDescent="0.25">
       <c r="B10" s="10"/>
-      <c r="C10" s="11" t="s">
-        <v>23</v>
+      <c r="C10" s="16" t="s">
+        <v>18</v>
       </c>
       <c r="D10" s="2">
-        <v>-1</v>
+        <v>-3180</v>
+      </c>
+      <c r="I10" s="17" t="s">
+        <v>19</v>
+      </c>
+      <c r="J10"/>
+      <c r="K10" s="21">
+        <v>33000</v>
+      </c>
+      <c r="L10" s="21" t="s">
+        <v>26</v>
       </c>
     </row>
-    <row r="11" spans="1:37" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:37" x14ac:dyDescent="0.25">
       <c r="B11" s="10" t="str">
         <f>"UC_CAP_"&amp;C11</f>
-        <v>UC_CAP_GRDSTOLIONONELCMIDN0_E</v>
+        <v>UC_CAP_SUPH2ALKC2N,SUPH2PEMC2N,SUPH2SOEC2N</v>
       </c>
-      <c r="C11" s="10" t="str">
-        <f>LEFT(C12,FIND("_",C12))&amp;"E"</f>
-        <v>GRDSTOLIONONELCMIDN0_E</v>
+      <c r="C11" s="15" t="s">
+        <v>20</v>
       </c>
       <c r="D11" s="2">
-        <f>ROUND(1/(J11*J12),$D$1)</f>
-        <v>833.33</v>
+        <v>1</v>
       </c>
       <c r="E11" s="2">
         <v>0</v>
@@ -11251,54 +11319,71 @@
       <c r="F11" s="2">
         <v>13</v>
       </c>
-      <c r="G11" s="13" t="s">
-        <v>18</v>
+      <c r="G11" s="12" t="s">
+        <v>32</v>
       </c>
-      <c r="I11" s="2" t="s">
-        <v>11</v>
+      <c r="I11" s="22" t="s">
+        <v>28</v>
       </c>
-      <c r="J11" s="12">
-        <f>6/18</f>
-        <v>0.33333333333333331</v>
+      <c r="J11"/>
+      <c r="K11" s="21">
+        <v>33000</v>
       </c>
-      <c r="K11" s="2" t="s">
-        <v>16</v>
+      <c r="L11" s="21" t="s">
+        <v>26</v>
       </c>
     </row>
-    <row r="12" spans="1:37" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:37" x14ac:dyDescent="0.25">
       <c r="B12" s="10"/>
-      <c r="C12" s="10" t="str">
-        <f>C10</f>
-        <v>GRDSTOLIONONELCMIDN0_PO</v>
+      <c r="C12" s="19" t="s">
+        <v>21</v>
       </c>
       <c r="D12" s="2">
-        <v>-1</v>
+        <f>-K10</f>
+        <v>-33000</v>
       </c>
-      <c r="I12" s="2" t="s">
+      <c r="I12" s="17" t="s">
+        <v>29</v>
+      </c>
+      <c r="J12"/>
+      <c r="K12" s="21">
+        <v>33000</v>
+      </c>
+      <c r="L12" s="21" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="13" spans="1:37" x14ac:dyDescent="0.25">
+      <c r="B13" s="10" t="str">
+        <f>"UC_CAP_"&amp;C13</f>
+        <v>UC_CAP_SUPELCAMM01</v>
+      </c>
+      <c r="C13" s="17" t="s">
         <v>22</v>
       </c>
-      <c r="J12" s="2">
-        <f>3.6*10^-3</f>
-        <v>3.6000000000000003E-3</v>
+      <c r="D13" s="23">
+        <v>1</v>
       </c>
-      <c r="K12" s="2" t="s">
+      <c r="E13" s="2">
+        <v>0</v>
+      </c>
+      <c r="F13" s="2">
         <v>13</v>
       </c>
-    </row>
-    <row r="13" spans="1:37" x14ac:dyDescent="0.2">
-      <c r="B13" s="10"/>
-      <c r="C13" s="10"/>
-      <c r="D13" s="10"/>
-      <c r="E13" s="10"/>
-      <c r="F13" s="10"/>
-      <c r="G13" s="10"/>
+      <c r="G13" s="10" t="s">
+        <v>33</v>
+      </c>
       <c r="H13" s="10"/>
-      <c r="I13" s="10"/>
-      <c r="J13" s="10"/>
-      <c r="K13" s="10"/>
-      <c r="L13" s="10"/>
-      <c r="M13" s="10"/>
-      <c r="N13" s="10"/>
+      <c r="I13" s="17" t="s">
+        <v>22</v>
+      </c>
+      <c r="J13"/>
+      <c r="K13" s="21">
+        <v>40000</v>
+      </c>
+      <c r="L13" s="21" t="s">
+        <v>26</v>
+      </c>
       <c r="O13" s="10"/>
       <c r="P13" s="10"/>
       <c r="Q13" s="10"/>
@@ -11323,20 +11408,27 @@
       <c r="AJ13" s="10"/>
       <c r="AK13" s="10"/>
     </row>
-    <row r="14" spans="1:37" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:37" x14ac:dyDescent="0.25">
       <c r="B14" s="10"/>
-      <c r="C14" s="10"/>
-      <c r="D14" s="10"/>
-      <c r="E14" s="10"/>
-      <c r="F14" s="10"/>
+      <c r="C14" s="16" t="s">
+        <v>18</v>
+      </c>
+      <c r="D14" s="2">
+        <f>-40000</f>
+        <v>-40000</v>
+      </c>
       <c r="G14" s="10"/>
       <c r="H14" s="10"/>
-      <c r="I14" s="10"/>
-      <c r="J14" s="10"/>
-      <c r="K14" s="10"/>
-      <c r="L14" s="10"/>
-      <c r="M14" s="10"/>
-      <c r="N14" s="10"/>
+      <c r="I14" t="s">
+        <v>23</v>
+      </c>
+      <c r="J14"/>
+      <c r="K14" s="21">
+        <v>100</v>
+      </c>
+      <c r="L14" s="21" t="s">
+        <v>30</v>
+      </c>
       <c r="O14" s="10"/>
       <c r="P14" s="10"/>
       <c r="Q14" s="10"/>
@@ -11361,20 +11453,37 @@
       <c r="AJ14" s="10"/>
       <c r="AK14" s="10"/>
     </row>
-    <row r="15" spans="1:37" x14ac:dyDescent="0.2">
-      <c r="B15" s="10"/>
-      <c r="C15" s="10"/>
-      <c r="D15" s="10"/>
-      <c r="E15" s="10"/>
-      <c r="F15" s="10"/>
-      <c r="G15" s="10"/>
+    <row r="15" spans="1:37" x14ac:dyDescent="0.25">
+      <c r="B15" s="10" t="str">
+        <f>"UC_CAP_"&amp;C15</f>
+        <v>UC_CAP_DAC_plant</v>
+      </c>
+      <c r="C15" t="s">
+        <v>23</v>
+      </c>
+      <c r="D15" s="2">
+        <v>1</v>
+      </c>
+      <c r="E15" s="2">
+        <v>0</v>
+      </c>
+      <c r="F15" s="2">
+        <v>13</v>
+      </c>
+      <c r="G15" s="10" t="s">
+        <v>34</v>
+      </c>
       <c r="H15" s="10"/>
-      <c r="I15" s="10"/>
-      <c r="J15" s="10"/>
-      <c r="K15" s="10"/>
-      <c r="L15" s="10"/>
-      <c r="M15" s="10"/>
-      <c r="N15" s="10"/>
+      <c r="I15" t="s">
+        <v>24</v>
+      </c>
+      <c r="J15"/>
+      <c r="K15" s="21">
+        <v>46000</v>
+      </c>
+      <c r="L15" s="20" t="s">
+        <v>26</v>
+      </c>
       <c r="O15" s="10"/>
       <c r="P15" s="10"/>
       <c r="Q15" s="10"/>
@@ -11399,20 +11508,26 @@
       <c r="AJ15" s="10"/>
       <c r="AK15" s="10"/>
     </row>
-    <row r="16" spans="1:37" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:37" x14ac:dyDescent="0.25">
       <c r="B16" s="10"/>
-      <c r="C16" s="10"/>
-      <c r="D16" s="10"/>
-      <c r="E16" s="10"/>
-      <c r="F16" s="10"/>
+      <c r="C16" s="16" t="s">
+        <v>18</v>
+      </c>
+      <c r="D16" s="23">
+        <v>-100</v>
+      </c>
       <c r="G16" s="10"/>
       <c r="H16" s="10"/>
-      <c r="I16" s="10"/>
-      <c r="J16" s="10"/>
-      <c r="K16" s="10"/>
-      <c r="L16" s="10"/>
-      <c r="M16" s="10"/>
-      <c r="N16" s="10"/>
+      <c r="I16" s="18" t="s">
+        <v>25</v>
+      </c>
+      <c r="J16"/>
+      <c r="K16" s="21">
+        <v>50000</v>
+      </c>
+      <c r="L16" s="20" t="s">
+        <v>26</v>
+      </c>
       <c r="O16" s="10"/>
       <c r="P16" s="10"/>
       <c r="Q16" s="10"/>
@@ -11437,20 +11552,29 @@
       <c r="AJ16" s="10"/>
       <c r="AK16" s="10"/>
     </row>
-    <row r="17" spans="2:37" x14ac:dyDescent="0.2">
-      <c r="B17" s="10"/>
-      <c r="C17" s="10"/>
-      <c r="D17" s="10"/>
-      <c r="E17" s="10"/>
-      <c r="F17" s="10"/>
-      <c r="G17" s="10"/>
+    <row r="17" spans="2:37" x14ac:dyDescent="0.25">
+      <c r="B17" s="10" t="str">
+        <f>"UC_CAP_"&amp;C17</f>
+        <v>UC_CAP_PLANTMETH01</v>
+      </c>
+      <c r="C17" t="s">
+        <v>24</v>
+      </c>
+      <c r="D17" s="23">
+        <v>1</v>
+      </c>
+      <c r="E17" s="2">
+        <v>0</v>
+      </c>
+      <c r="F17" s="2">
+        <v>13</v>
+      </c>
+      <c r="G17" s="10" t="s">
+        <v>35</v>
+      </c>
       <c r="H17" s="10"/>
       <c r="I17" s="10"/>
       <c r="J17" s="10"/>
-      <c r="K17" s="10"/>
-      <c r="L17" s="10"/>
-      <c r="M17" s="10"/>
-      <c r="N17" s="10"/>
       <c r="O17" s="10"/>
       <c r="P17" s="10"/>
       <c r="Q17" s="10"/>
@@ -11475,13 +11599,15 @@
       <c r="AJ17" s="10"/>
       <c r="AK17" s="10"/>
     </row>
-    <row r="18" spans="2:37" x14ac:dyDescent="0.2">
+    <row r="18" spans="2:37" x14ac:dyDescent="0.25">
       <c r="B18" s="10"/>
-      <c r="C18" s="10"/>
-      <c r="D18" s="10"/>
-      <c r="E18" s="10"/>
-      <c r="F18" s="10"/>
-      <c r="G18" s="10"/>
+      <c r="C18" s="16" t="s">
+        <v>18</v>
+      </c>
+      <c r="D18" s="23">
+        <f>-K15</f>
+        <v>-46000</v>
+      </c>
       <c r="H18" s="10"/>
       <c r="I18" s="10"/>
       <c r="J18" s="10"/>
@@ -11513,13 +11639,26 @@
       <c r="AJ18" s="10"/>
       <c r="AK18" s="10"/>
     </row>
-    <row r="19" spans="2:37" x14ac:dyDescent="0.2">
-      <c r="B19" s="10"/>
-      <c r="C19" s="10"/>
-      <c r="D19" s="10"/>
-      <c r="E19" s="10"/>
-      <c r="F19" s="10"/>
-      <c r="G19" s="10"/>
+    <row r="19" spans="2:37" x14ac:dyDescent="0.25">
+      <c r="B19" s="10" t="str">
+        <f>"UC_CAP_"&amp;C19</f>
+        <v>UC_CAP_SUPKRECO2C1</v>
+      </c>
+      <c r="C19" s="18" t="s">
+        <v>25</v>
+      </c>
+      <c r="D19" s="23">
+        <v>1</v>
+      </c>
+      <c r="E19" s="2">
+        <v>0</v>
+      </c>
+      <c r="F19" s="2">
+        <v>13</v>
+      </c>
+      <c r="G19" s="10" t="s">
+        <v>36</v>
+      </c>
       <c r="H19" s="10"/>
       <c r="I19" s="10"/>
       <c r="J19" s="10"/>
@@ -11551,11 +11690,15 @@
       <c r="AJ19" s="10"/>
       <c r="AK19" s="10"/>
     </row>
-    <row r="20" spans="2:37" x14ac:dyDescent="0.2">
+    <row r="20" spans="2:37" x14ac:dyDescent="0.25">
       <c r="B20" s="10"/>
-      <c r="C20" s="10"/>
-      <c r="D20" s="10"/>
-      <c r="E20" s="10"/>
+      <c r="C20" s="16" t="s">
+        <v>18</v>
+      </c>
+      <c r="D20" s="23">
+        <f>-K16</f>
+        <v>-50000</v>
+      </c>
       <c r="F20" s="10"/>
       <c r="G20" s="10"/>
       <c r="H20" s="10"/>
@@ -11589,10 +11732,10 @@
       <c r="AJ20" s="10"/>
       <c r="AK20" s="10"/>
     </row>
-    <row r="21" spans="2:37" x14ac:dyDescent="0.2">
+    <row r="21" spans="2:37" x14ac:dyDescent="0.25">
       <c r="B21" s="10"/>
       <c r="C21" s="10"/>
-      <c r="D21" s="10"/>
+      <c r="D21" s="23"/>
       <c r="E21" s="10"/>
       <c r="F21" s="10"/>
       <c r="G21" s="10"/>
@@ -11627,7 +11770,7 @@
       <c r="AJ21" s="10"/>
       <c r="AK21" s="10"/>
     </row>
-    <row r="22" spans="2:37" x14ac:dyDescent="0.2">
+    <row r="22" spans="2:37" x14ac:dyDescent="0.25">
       <c r="B22" s="10"/>
       <c r="C22" s="10"/>
       <c r="D22" s="10"/>
@@ -11665,7 +11808,7 @@
       <c r="AJ22" s="10"/>
       <c r="AK22" s="10"/>
     </row>
-    <row r="23" spans="2:37" x14ac:dyDescent="0.2">
+    <row r="23" spans="2:37" x14ac:dyDescent="0.25">
       <c r="B23" s="10"/>
       <c r="C23" s="10"/>
       <c r="D23" s="10"/>
@@ -11703,7 +11846,7 @@
       <c r="AJ23" s="10"/>
       <c r="AK23" s="10"/>
     </row>
-    <row r="24" spans="2:37" x14ac:dyDescent="0.2">
+    <row r="24" spans="2:37" x14ac:dyDescent="0.25">
       <c r="B24" s="10"/>
       <c r="C24" s="10"/>
       <c r="D24" s="10"/>
@@ -11741,7 +11884,7 @@
       <c r="AJ24" s="10"/>
       <c r="AK24" s="10"/>
     </row>
-    <row r="25" spans="2:37" x14ac:dyDescent="0.2">
+    <row r="25" spans="2:37" x14ac:dyDescent="0.25">
       <c r="B25" s="10"/>
       <c r="C25" s="10"/>
       <c r="D25" s="10"/>
@@ -11779,7 +11922,7 @@
       <c r="AJ25" s="10"/>
       <c r="AK25" s="10"/>
     </row>
-    <row r="26" spans="2:37" x14ac:dyDescent="0.2">
+    <row r="26" spans="2:37" x14ac:dyDescent="0.25">
       <c r="B26" s="10"/>
       <c r="C26" s="10"/>
       <c r="D26" s="10"/>
@@ -11817,7 +11960,7 @@
       <c r="AJ26" s="10"/>
       <c r="AK26" s="10"/>
     </row>
-    <row r="27" spans="2:37" x14ac:dyDescent="0.2">
+    <row r="27" spans="2:37" x14ac:dyDescent="0.25">
       <c r="B27" s="10"/>
       <c r="C27" s="10"/>
       <c r="D27" s="10"/>
@@ -11855,7 +11998,7 @@
       <c r="AJ27" s="10"/>
       <c r="AK27" s="10"/>
     </row>
-    <row r="28" spans="2:37" x14ac:dyDescent="0.2">
+    <row r="28" spans="2:37" x14ac:dyDescent="0.25">
       <c r="B28" s="10"/>
       <c r="C28" s="10"/>
       <c r="D28" s="10"/>
@@ -11893,7 +12036,7 @@
       <c r="AJ28" s="10"/>
       <c r="AK28" s="10"/>
     </row>
-    <row r="29" spans="2:37" x14ac:dyDescent="0.2">
+    <row r="29" spans="2:37" x14ac:dyDescent="0.25">
       <c r="B29" s="10"/>
       <c r="C29" s="10"/>
       <c r="D29" s="10"/>
@@ -11931,7 +12074,7 @@
       <c r="AJ29" s="10"/>
       <c r="AK29" s="10"/>
     </row>
-    <row r="30" spans="2:37" x14ac:dyDescent="0.2">
+    <row r="30" spans="2:37" x14ac:dyDescent="0.25">
       <c r="B30" s="10"/>
       <c r="C30" s="10"/>
       <c r="D30" s="10"/>
@@ -11969,7 +12112,7 @@
       <c r="AJ30" s="10"/>
       <c r="AK30" s="10"/>
     </row>
-    <row r="31" spans="2:37" x14ac:dyDescent="0.2">
+    <row r="31" spans="2:37" x14ac:dyDescent="0.25">
       <c r="B31" s="10"/>
       <c r="C31" s="10"/>
       <c r="D31" s="10"/>
@@ -12007,7 +12150,7 @@
       <c r="AJ31" s="10"/>
       <c r="AK31" s="10"/>
     </row>
-    <row r="32" spans="2:37" x14ac:dyDescent="0.2">
+    <row r="32" spans="2:37" x14ac:dyDescent="0.25">
       <c r="B32" s="10"/>
       <c r="C32" s="10"/>
       <c r="D32" s="10"/>
@@ -12045,7 +12188,7 @@
       <c r="AJ32" s="10"/>
       <c r="AK32" s="10"/>
     </row>
-    <row r="33" spans="2:37" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:37" x14ac:dyDescent="0.25">
       <c r="B33" s="10"/>
       <c r="C33" s="10"/>
       <c r="D33" s="10"/>
@@ -12083,7 +12226,7 @@
       <c r="AJ33" s="10"/>
       <c r="AK33" s="10"/>
     </row>
-    <row r="34" spans="2:37" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:37" x14ac:dyDescent="0.25">
       <c r="B34" s="10"/>
       <c r="C34" s="10"/>
       <c r="D34" s="10"/>
@@ -12121,7 +12264,7 @@
       <c r="AJ34" s="10"/>
       <c r="AK34" s="10"/>
     </row>
-    <row r="35" spans="2:37" x14ac:dyDescent="0.2">
+    <row r="35" spans="2:37" x14ac:dyDescent="0.25">
       <c r="B35" s="10"/>
       <c r="C35" s="10"/>
       <c r="D35" s="10"/>
@@ -12159,7 +12302,7 @@
       <c r="AJ35" s="10"/>
       <c r="AK35" s="10"/>
     </row>
-    <row r="36" spans="2:37" x14ac:dyDescent="0.2">
+    <row r="36" spans="2:37" x14ac:dyDescent="0.25">
       <c r="B36" s="10"/>
       <c r="C36" s="10"/>
       <c r="D36" s="10"/>
@@ -12197,7 +12340,7 @@
       <c r="AJ36" s="10"/>
       <c r="AK36" s="10"/>
     </row>
-    <row r="37" spans="2:37" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:37" x14ac:dyDescent="0.25">
       <c r="B37" s="10"/>
       <c r="C37" s="10"/>
       <c r="D37" s="10"/>
@@ -12235,7 +12378,7 @@
       <c r="AJ37" s="10"/>
       <c r="AK37" s="10"/>
     </row>
-    <row r="38" spans="2:37" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:37" x14ac:dyDescent="0.25">
       <c r="B38" s="10"/>
       <c r="C38" s="10"/>
       <c r="D38" s="10"/>
@@ -12273,7 +12416,7 @@
       <c r="AJ38" s="10"/>
       <c r="AK38" s="10"/>
     </row>
-    <row r="39" spans="2:37" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:37" x14ac:dyDescent="0.25">
       <c r="B39" s="10"/>
       <c r="C39" s="10"/>
       <c r="D39" s="10"/>
@@ -12311,7 +12454,7 @@
       <c r="AJ39" s="10"/>
       <c r="AK39" s="10"/>
     </row>
-    <row r="40" spans="2:37" x14ac:dyDescent="0.2">
+    <row r="40" spans="2:37" x14ac:dyDescent="0.25">
       <c r="B40" s="10"/>
       <c r="C40" s="10"/>
       <c r="D40" s="10"/>
@@ -12349,7 +12492,7 @@
       <c r="AJ40" s="10"/>
       <c r="AK40" s="10"/>
     </row>
-    <row r="41" spans="2:37" x14ac:dyDescent="0.2">
+    <row r="41" spans="2:37" x14ac:dyDescent="0.25">
       <c r="B41" s="10"/>
       <c r="C41" s="10"/>
       <c r="D41" s="10"/>
@@ -12387,7 +12530,7 @@
       <c r="AJ41" s="10"/>
       <c r="AK41" s="10"/>
     </row>
-    <row r="42" spans="2:37" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:37" x14ac:dyDescent="0.25">
       <c r="B42" s="10"/>
       <c r="C42" s="10"/>
       <c r="D42" s="10"/>
@@ -12425,7 +12568,7 @@
       <c r="AJ42" s="10"/>
       <c r="AK42" s="10"/>
     </row>
-    <row r="43" spans="2:37" x14ac:dyDescent="0.2">
+    <row r="43" spans="2:37" x14ac:dyDescent="0.25">
       <c r="B43" s="10"/>
       <c r="C43" s="10"/>
       <c r="D43" s="10"/>
@@ -12463,7 +12606,7 @@
       <c r="AJ43" s="10"/>
       <c r="AK43" s="10"/>
     </row>
-    <row r="44" spans="2:37" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:37" x14ac:dyDescent="0.25">
       <c r="B44" s="10"/>
       <c r="C44" s="10"/>
       <c r="D44" s="10"/>
@@ -12501,7 +12644,7 @@
       <c r="AJ44" s="10"/>
       <c r="AK44" s="10"/>
     </row>
-    <row r="45" spans="2:37" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:37" x14ac:dyDescent="0.25">
       <c r="B45" s="10"/>
       <c r="C45" s="10"/>
       <c r="D45" s="10"/>
@@ -12539,7 +12682,7 @@
       <c r="AJ45" s="10"/>
       <c r="AK45" s="10"/>
     </row>
-    <row r="46" spans="2:37" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:37" x14ac:dyDescent="0.25">
       <c r="B46" s="10"/>
       <c r="C46" s="10"/>
       <c r="D46" s="10"/>
@@ -12577,7 +12720,7 @@
       <c r="AJ46" s="10"/>
       <c r="AK46" s="10"/>
     </row>
-    <row r="47" spans="2:37" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:37" x14ac:dyDescent="0.25">
       <c r="B47" s="10"/>
       <c r="C47" s="10"/>
       <c r="D47" s="10"/>
@@ -12615,7 +12758,7 @@
       <c r="AJ47" s="10"/>
       <c r="AK47" s="10"/>
     </row>
-    <row r="48" spans="2:37" x14ac:dyDescent="0.2">
+    <row r="48" spans="2:37" x14ac:dyDescent="0.25">
       <c r="B48" s="10"/>
       <c r="C48" s="10"/>
       <c r="D48" s="10"/>
@@ -12653,7 +12796,7 @@
       <c r="AJ48" s="10"/>
       <c r="AK48" s="10"/>
     </row>
-    <row r="49" spans="2:37" x14ac:dyDescent="0.2">
+    <row r="49" spans="2:37" x14ac:dyDescent="0.25">
       <c r="B49" s="10"/>
       <c r="C49" s="10"/>
       <c r="D49" s="10"/>
@@ -12691,7 +12834,7 @@
       <c r="AJ49" s="10"/>
       <c r="AK49" s="10"/>
     </row>
-    <row r="50" spans="2:37" x14ac:dyDescent="0.2">
+    <row r="50" spans="2:37" x14ac:dyDescent="0.25">
       <c r="B50" s="10"/>
       <c r="C50" s="10"/>
       <c r="D50" s="10"/>
@@ -12729,7 +12872,7 @@
       <c r="AJ50" s="10"/>
       <c r="AK50" s="10"/>
     </row>
-    <row r="51" spans="2:37" x14ac:dyDescent="0.2">
+    <row r="51" spans="2:37" x14ac:dyDescent="0.25">
       <c r="B51" s="10"/>
       <c r="C51" s="10"/>
       <c r="D51" s="10"/>
@@ -12767,22 +12910,22 @@
       <c r="AJ51" s="10"/>
       <c r="AK51" s="10"/>
     </row>
-    <row r="52" spans="2:37" x14ac:dyDescent="0.2">
+    <row r="52" spans="2:37" x14ac:dyDescent="0.25">
       <c r="G52" s="2"/>
     </row>
-    <row r="53" spans="2:37" x14ac:dyDescent="0.2">
+    <row r="53" spans="2:37" x14ac:dyDescent="0.25">
       <c r="G53" s="2"/>
     </row>
-    <row r="54" spans="2:37" x14ac:dyDescent="0.2">
+    <row r="54" spans="2:37" x14ac:dyDescent="0.25">
       <c r="G54" s="2"/>
     </row>
-    <row r="55" spans="2:37" x14ac:dyDescent="0.2">
+    <row r="55" spans="2:37" x14ac:dyDescent="0.25">
       <c r="G55" s="2"/>
     </row>
-    <row r="56" spans="2:37" x14ac:dyDescent="0.2">
+    <row r="56" spans="2:37" x14ac:dyDescent="0.25">
       <c r="G56" s="2"/>
     </row>
-    <row r="57" spans="2:37" x14ac:dyDescent="0.2">
+    <row r="57" spans="2:37" x14ac:dyDescent="0.25">
       <c r="B57" s="10"/>
       <c r="C57" s="10"/>
       <c r="D57" s="10"/>
@@ -12820,7 +12963,7 @@
       <c r="AJ57" s="10"/>
       <c r="AK57" s="10"/>
     </row>
-    <row r="58" spans="2:37" x14ac:dyDescent="0.2">
+    <row r="58" spans="2:37" x14ac:dyDescent="0.25">
       <c r="B58" s="10"/>
       <c r="C58" s="10"/>
       <c r="D58" s="10"/>
@@ -12858,7 +13001,7 @@
       <c r="AJ58" s="10"/>
       <c r="AK58" s="10"/>
     </row>
-    <row r="59" spans="2:37" x14ac:dyDescent="0.2">
+    <row r="59" spans="2:37" x14ac:dyDescent="0.25">
       <c r="B59" s="10"/>
       <c r="C59" s="10"/>
       <c r="D59" s="10"/>
@@ -12896,7 +13039,7 @@
       <c r="AJ59" s="10"/>
       <c r="AK59" s="10"/>
     </row>
-    <row r="60" spans="2:37" x14ac:dyDescent="0.2">
+    <row r="60" spans="2:37" x14ac:dyDescent="0.25">
       <c r="B60" s="10"/>
       <c r="C60" s="10"/>
       <c r="D60" s="10"/>
@@ -12934,7 +13077,7 @@
       <c r="AJ60" s="10"/>
       <c r="AK60" s="10"/>
     </row>
-    <row r="61" spans="2:37" x14ac:dyDescent="0.2">
+    <row r="61" spans="2:37" x14ac:dyDescent="0.25">
       <c r="B61" s="10"/>
       <c r="C61" s="10"/>
       <c r="D61" s="10"/>
@@ -12972,7 +13115,7 @@
       <c r="AJ61" s="10"/>
       <c r="AK61" s="10"/>
     </row>
-    <row r="62" spans="2:37" x14ac:dyDescent="0.2">
+    <row r="62" spans="2:37" x14ac:dyDescent="0.25">
       <c r="B62" s="10"/>
       <c r="C62" s="10"/>
       <c r="D62" s="10"/>
@@ -13010,7 +13153,7 @@
       <c r="AJ62" s="10"/>
       <c r="AK62" s="10"/>
     </row>
-    <row r="63" spans="2:37" x14ac:dyDescent="0.2">
+    <row r="63" spans="2:37" x14ac:dyDescent="0.25">
       <c r="B63" s="10"/>
       <c r="C63" s="10"/>
       <c r="D63" s="10"/>
@@ -13048,7 +13191,7 @@
       <c r="AJ63" s="10"/>
       <c r="AK63" s="10"/>
     </row>
-    <row r="64" spans="2:37" x14ac:dyDescent="0.2">
+    <row r="64" spans="2:37" x14ac:dyDescent="0.25">
       <c r="B64" s="10"/>
       <c r="C64" s="10"/>
       <c r="D64" s="10"/>
@@ -13086,7 +13229,7 @@
       <c r="AJ64" s="10"/>
       <c r="AK64" s="10"/>
     </row>
-    <row r="65" spans="2:37" x14ac:dyDescent="0.2">
+    <row r="65" spans="2:37" x14ac:dyDescent="0.25">
       <c r="B65" s="10"/>
       <c r="C65" s="10"/>
       <c r="D65" s="10"/>
@@ -13124,7 +13267,7 @@
       <c r="AJ65" s="10"/>
       <c r="AK65" s="10"/>
     </row>
-    <row r="66" spans="2:37" x14ac:dyDescent="0.2">
+    <row r="66" spans="2:37" x14ac:dyDescent="0.25">
       <c r="B66" s="10"/>
       <c r="C66" s="10"/>
       <c r="D66" s="10"/>
@@ -13162,7 +13305,7 @@
       <c r="AJ66" s="10"/>
       <c r="AK66" s="10"/>
     </row>
-    <row r="67" spans="2:37" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:37" x14ac:dyDescent="0.25">
       <c r="B67" s="10"/>
       <c r="C67" s="10"/>
       <c r="D67" s="10"/>
@@ -13200,7 +13343,7 @@
       <c r="AJ67" s="10"/>
       <c r="AK67" s="10"/>
     </row>
-    <row r="68" spans="2:37" x14ac:dyDescent="0.2">
+    <row r="68" spans="2:37" x14ac:dyDescent="0.25">
       <c r="B68" s="10"/>
       <c r="C68" s="10"/>
       <c r="D68" s="10"/>
@@ -13238,7 +13381,7 @@
       <c r="AJ68" s="10"/>
       <c r="AK68" s="10"/>
     </row>
-    <row r="69" spans="2:37" x14ac:dyDescent="0.2">
+    <row r="69" spans="2:37" x14ac:dyDescent="0.25">
       <c r="B69" s="10"/>
       <c r="C69" s="10"/>
       <c r="D69" s="10"/>
@@ -13276,7 +13419,7 @@
       <c r="AJ69" s="10"/>
       <c r="AK69" s="10"/>
     </row>
-    <row r="70" spans="2:37" x14ac:dyDescent="0.2">
+    <row r="70" spans="2:37" x14ac:dyDescent="0.25">
       <c r="B70" s="10"/>
       <c r="C70" s="10"/>
       <c r="D70" s="10"/>
@@ -13314,7 +13457,7 @@
       <c r="AJ70" s="10"/>
       <c r="AK70" s="10"/>
     </row>
-    <row r="71" spans="2:37" x14ac:dyDescent="0.2">
+    <row r="71" spans="2:37" x14ac:dyDescent="0.25">
       <c r="B71" s="10"/>
       <c r="C71" s="10"/>
       <c r="D71" s="10"/>
@@ -13352,7 +13495,7 @@
       <c r="AJ71" s="10"/>
       <c r="AK71" s="10"/>
     </row>
-    <row r="72" spans="2:37" x14ac:dyDescent="0.2">
+    <row r="72" spans="2:37" x14ac:dyDescent="0.25">
       <c r="B72" s="10"/>
       <c r="C72" s="10"/>
       <c r="D72" s="10"/>
@@ -13390,40 +13533,40 @@
       <c r="AJ72" s="10"/>
       <c r="AK72" s="10"/>
     </row>
-    <row r="73" spans="2:37" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:37" x14ac:dyDescent="0.25">
       <c r="G73" s="2"/>
     </row>
-    <row r="74" spans="2:37" x14ac:dyDescent="0.2">
+    <row r="74" spans="2:37" x14ac:dyDescent="0.25">
       <c r="G74" s="2"/>
     </row>
-    <row r="75" spans="2:37" x14ac:dyDescent="0.2">
+    <row r="75" spans="2:37" x14ac:dyDescent="0.25">
       <c r="G75" s="2"/>
     </row>
-    <row r="76" spans="2:37" x14ac:dyDescent="0.2">
+    <row r="76" spans="2:37" x14ac:dyDescent="0.25">
       <c r="G76" s="2"/>
     </row>
-    <row r="77" spans="2:37" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:37" x14ac:dyDescent="0.25">
       <c r="G77" s="2"/>
     </row>
-    <row r="78" spans="2:37" x14ac:dyDescent="0.2">
+    <row r="78" spans="2:37" x14ac:dyDescent="0.25">
       <c r="G78" s="2"/>
     </row>
-    <row r="79" spans="2:37" x14ac:dyDescent="0.2">
+    <row r="79" spans="2:37" x14ac:dyDescent="0.25">
       <c r="G79" s="2"/>
     </row>
-    <row r="80" spans="2:37" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:37" x14ac:dyDescent="0.25">
       <c r="G80" s="2"/>
     </row>
-    <row r="81" spans="7:7" x14ac:dyDescent="0.2">
+    <row r="81" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G81" s="2"/>
     </row>
-    <row r="82" spans="7:7" x14ac:dyDescent="0.2">
+    <row r="82" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G82" s="2"/>
     </row>
-    <row r="83" spans="7:7" x14ac:dyDescent="0.2">
+    <row r="83" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G83" s="2"/>
     </row>
-    <row r="84" spans="7:7" x14ac:dyDescent="0.2">
+    <row r="84" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G84" s="2"/>
     </row>
   </sheetData>

--- a/SuppXLS/Scen_STO_BaseConstraints.xlsx
+++ b/SuppXLS/Scen_STO_BaseConstraints.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Veda\Veda_models\Master thesis model 2\SuppXLS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{138A090C-A6CB-473D-9823-03062CE5EFBF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2A93BDED-87C2-4BEE-B9F1-F674A70CA551}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{0417E306-F4FC-4232-89E9-93186F9EB74E}"/>
   </bookViews>
@@ -77,7 +77,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="41">
   <si>
     <t>UC_N</t>
   </si>
@@ -128,9 +128,6 @@
   </si>
   <si>
     <t>ELCRNWIN01</t>
-  </si>
-  <si>
-    <t>ELCRNWIN01, ELCRNWIN02</t>
   </si>
   <si>
     <t>Platform_electrical_equipment</t>
@@ -188,6 +185,21 @@
   </si>
   <si>
     <t>RELATION OF SPACE FOR JETFUEL</t>
+  </si>
+  <si>
+    <t>Platform_Ammonia</t>
+  </si>
+  <si>
+    <t>Platfrom_Methanol</t>
+  </si>
+  <si>
+    <t>Platform_Jetfuel</t>
+  </si>
+  <si>
+    <t>Platfrom_DAC</t>
+  </si>
+  <si>
+    <t>ELCRNWIN01,ELCRNWIN02</t>
   </si>
 </sst>
 </file>
@@ -306,7 +318,7 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="24">
+  <cellXfs count="22">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="5"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -342,11 +354,9 @@
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="6"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="6" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="5" borderId="0" xfId="2" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="2"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="7">
     <cellStyle name="20% - Accent5" xfId="1" builtinId="46"/>
@@ -11141,7 +11151,7 @@
   <dimension ref="A1:AK84"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="G19" sqref="G19"/>
+      <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -11245,20 +11255,20 @@
         <v>16</v>
       </c>
       <c r="J8"/>
-      <c r="K8" s="20">
+      <c r="K8" s="19">
         <v>3180</v>
       </c>
-      <c r="L8" s="20" t="s">
-        <v>26</v>
+      <c r="L8" s="19" t="s">
+        <v>25</v>
       </c>
     </row>
     <row r="9" spans="1:37" x14ac:dyDescent="0.25">
       <c r="B9" s="10" t="str">
         <f>"UC_CAP_"&amp;C9</f>
-        <v>UC_CAP_ELCRNWIN01, ELCRNWIN02</v>
+        <v>UC_CAP_ELCRNWIN01,ELCRNWIN02</v>
       </c>
       <c r="C9" s="15" t="s">
-        <v>17</v>
+        <v>40</v>
       </c>
       <c r="D9" s="2">
         <v>1</v>
@@ -11270,36 +11280,36 @@
         <v>13</v>
       </c>
       <c r="G9" s="12" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="I9" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="J9"/>
-      <c r="K9" s="20">
+      <c r="K9" s="19">
         <v>3180</v>
       </c>
-      <c r="L9" s="20" t="s">
-        <v>26</v>
+      <c r="L9" s="19" t="s">
+        <v>25</v>
       </c>
     </row>
     <row r="10" spans="1:37" x14ac:dyDescent="0.25">
       <c r="B10" s="10"/>
       <c r="C10" s="16" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D10" s="2">
         <v>-3180</v>
       </c>
       <c r="I10" s="17" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="J10"/>
-      <c r="K10" s="21">
+      <c r="K10" s="20">
         <v>33000</v>
       </c>
-      <c r="L10" s="21" t="s">
-        <v>26</v>
+      <c r="L10" s="20" t="s">
+        <v>25</v>
       </c>
     </row>
     <row r="11" spans="1:37" x14ac:dyDescent="0.25">
@@ -11308,7 +11318,7 @@
         <v>UC_CAP_SUPH2ALKC2N,SUPH2PEMC2N,SUPH2SOEC2N</v>
       </c>
       <c r="C11" s="15" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D11" s="2">
         <v>1</v>
@@ -11320,37 +11330,37 @@
         <v>13</v>
       </c>
       <c r="G11" s="12" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
-      <c r="I11" s="22" t="s">
-        <v>28</v>
+      <c r="I11" s="21" t="s">
+        <v>27</v>
       </c>
       <c r="J11"/>
-      <c r="K11" s="21">
+      <c r="K11" s="20">
         <v>33000</v>
       </c>
-      <c r="L11" s="21" t="s">
-        <v>26</v>
+      <c r="L11" s="20" t="s">
+        <v>25</v>
       </c>
     </row>
     <row r="12" spans="1:37" x14ac:dyDescent="0.25">
       <c r="B12" s="10"/>
-      <c r="C12" s="19" t="s">
-        <v>21</v>
+      <c r="C12" s="17" t="s">
+        <v>20</v>
       </c>
       <c r="D12" s="2">
         <f>-K10</f>
         <v>-33000</v>
       </c>
       <c r="I12" s="17" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="J12"/>
-      <c r="K12" s="21">
+      <c r="K12" s="20">
         <v>33000</v>
       </c>
-      <c r="L12" s="21" t="s">
-        <v>26</v>
+      <c r="L12" s="20" t="s">
+        <v>25</v>
       </c>
     </row>
     <row r="13" spans="1:37" x14ac:dyDescent="0.25">
@@ -11359,9 +11369,9 @@
         <v>UC_CAP_SUPELCAMM01</v>
       </c>
       <c r="C13" s="17" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
-      <c r="D13" s="23">
+      <c r="D13" s="2">
         <v>1</v>
       </c>
       <c r="E13" s="2">
@@ -11371,18 +11381,18 @@
         <v>13</v>
       </c>
       <c r="G13" s="10" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="H13" s="10"/>
       <c r="I13" s="17" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="J13"/>
-      <c r="K13" s="21">
+      <c r="K13" s="20">
         <v>40000</v>
       </c>
-      <c r="L13" s="21" t="s">
-        <v>26</v>
+      <c r="L13" s="20" t="s">
+        <v>25</v>
       </c>
       <c r="O13" s="10"/>
       <c r="P13" s="10"/>
@@ -11411,7 +11421,7 @@
     <row r="14" spans="1:37" x14ac:dyDescent="0.25">
       <c r="B14" s="10"/>
       <c r="C14" s="16" t="s">
-        <v>18</v>
+        <v>36</v>
       </c>
       <c r="D14" s="2">
         <f>-40000</f>
@@ -11420,14 +11430,14 @@
       <c r="G14" s="10"/>
       <c r="H14" s="10"/>
       <c r="I14" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="J14"/>
-      <c r="K14" s="21">
+      <c r="K14" s="20">
         <v>100</v>
       </c>
-      <c r="L14" s="21" t="s">
-        <v>30</v>
+      <c r="L14" s="20" t="s">
+        <v>29</v>
       </c>
       <c r="O14" s="10"/>
       <c r="P14" s="10"/>
@@ -11459,7 +11469,7 @@
         <v>UC_CAP_DAC_plant</v>
       </c>
       <c r="C15" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D15" s="2">
         <v>1</v>
@@ -11471,18 +11481,18 @@
         <v>13</v>
       </c>
       <c r="G15" s="10" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="H15" s="10"/>
       <c r="I15" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="J15"/>
-      <c r="K15" s="21">
+      <c r="K15" s="20">
         <v>46000</v>
       </c>
-      <c r="L15" s="20" t="s">
-        <v>26</v>
+      <c r="L15" s="19" t="s">
+        <v>25</v>
       </c>
       <c r="O15" s="10"/>
       <c r="P15" s="10"/>
@@ -11511,22 +11521,22 @@
     <row r="16" spans="1:37" x14ac:dyDescent="0.25">
       <c r="B16" s="10"/>
       <c r="C16" s="16" t="s">
-        <v>18</v>
+        <v>39</v>
       </c>
-      <c r="D16" s="23">
+      <c r="D16" s="2">
         <v>-100</v>
       </c>
       <c r="G16" s="10"/>
       <c r="H16" s="10"/>
       <c r="I16" s="18" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="J16"/>
-      <c r="K16" s="21">
+      <c r="K16" s="20">
         <v>50000</v>
       </c>
-      <c r="L16" s="20" t="s">
-        <v>26</v>
+      <c r="L16" s="19" t="s">
+        <v>25</v>
       </c>
       <c r="O16" s="10"/>
       <c r="P16" s="10"/>
@@ -11558,9 +11568,9 @@
         <v>UC_CAP_PLANTMETH01</v>
       </c>
       <c r="C17" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
-      <c r="D17" s="23">
+      <c r="D17" s="2">
         <v>1</v>
       </c>
       <c r="E17" s="2">
@@ -11570,7 +11580,7 @@
         <v>13</v>
       </c>
       <c r="G17" s="10" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="H17" s="10"/>
       <c r="I17" s="10"/>
@@ -11602,9 +11612,9 @@
     <row r="18" spans="2:37" x14ac:dyDescent="0.25">
       <c r="B18" s="10"/>
       <c r="C18" s="16" t="s">
-        <v>18</v>
+        <v>37</v>
       </c>
-      <c r="D18" s="23">
+      <c r="D18" s="2">
         <f>-K15</f>
         <v>-46000</v>
       </c>
@@ -11645,9 +11655,9 @@
         <v>UC_CAP_SUPKRECO2C1</v>
       </c>
       <c r="C19" s="18" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
-      <c r="D19" s="23">
+      <c r="D19" s="2">
         <v>1</v>
       </c>
       <c r="E19" s="2">
@@ -11657,7 +11667,7 @@
         <v>13</v>
       </c>
       <c r="G19" s="10" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="H19" s="10"/>
       <c r="I19" s="10"/>
@@ -11693,9 +11703,9 @@
     <row r="20" spans="2:37" x14ac:dyDescent="0.25">
       <c r="B20" s="10"/>
       <c r="C20" s="16" t="s">
-        <v>18</v>
+        <v>38</v>
       </c>
-      <c r="D20" s="23">
+      <c r="D20" s="2">
         <f>-K16</f>
         <v>-50000</v>
       </c>
@@ -11735,7 +11745,6 @@
     <row r="21" spans="2:37" x14ac:dyDescent="0.25">
       <c r="B21" s="10"/>
       <c r="C21" s="10"/>
-      <c r="D21" s="23"/>
       <c r="E21" s="10"/>
       <c r="F21" s="10"/>
       <c r="G21" s="10"/>

--- a/SuppXLS/Scen_STO_BaseConstraints.xlsx
+++ b/SuppXLS/Scen_STO_BaseConstraints.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Veda\Veda_models\Master thesis model 2\SuppXLS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2A93BDED-87C2-4BEE-B9F1-F674A70CA551}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{33118AB7-47E7-45F7-A70C-0A4981B92BDC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{0417E306-F4FC-4232-89E9-93186F9EB74E}"/>
   </bookViews>
@@ -11150,8 +11150,8 @@
   </sheetPr>
   <dimension ref="A1:AK84"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="C9" sqref="C9"/>
+    <sheetView tabSelected="1" zoomScale="61" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="D21" sqref="D21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -11271,7 +11271,7 @@
         <v>40</v>
       </c>
       <c r="D9" s="2">
-        <v>1</v>
+        <v>3180</v>
       </c>
       <c r="E9" s="2">
         <v>0</v>
@@ -11299,7 +11299,7 @@
         <v>17</v>
       </c>
       <c r="D10" s="2">
-        <v>-3180</v>
+        <v>-1</v>
       </c>
       <c r="I10" s="17" t="s">
         <v>18</v>
@@ -11321,7 +11321,7 @@
         <v>19</v>
       </c>
       <c r="D11" s="2">
-        <v>1</v>
+        <v>33000</v>
       </c>
       <c r="E11" s="2">
         <v>0</v>
@@ -11349,8 +11349,7 @@
         <v>20</v>
       </c>
       <c r="D12" s="2">
-        <f>-K10</f>
-        <v>-33000</v>
+        <v>-1</v>
       </c>
       <c r="I12" s="17" t="s">
         <v>28</v>
@@ -11372,7 +11371,7 @@
         <v>21</v>
       </c>
       <c r="D13" s="2">
-        <v>1</v>
+        <v>40000</v>
       </c>
       <c r="E13" s="2">
         <v>0</v>
@@ -11424,8 +11423,7 @@
         <v>36</v>
       </c>
       <c r="D14" s="2">
-        <f>-40000</f>
-        <v>-40000</v>
+        <v>-1</v>
       </c>
       <c r="G14" s="10"/>
       <c r="H14" s="10"/>
@@ -11472,7 +11470,7 @@
         <v>22</v>
       </c>
       <c r="D15" s="2">
-        <v>1</v>
+        <v>100</v>
       </c>
       <c r="E15" s="2">
         <v>0</v>
@@ -11524,7 +11522,7 @@
         <v>39</v>
       </c>
       <c r="D16" s="2">
-        <v>-100</v>
+        <v>-1</v>
       </c>
       <c r="G16" s="10"/>
       <c r="H16" s="10"/>
@@ -11571,7 +11569,7 @@
         <v>23</v>
       </c>
       <c r="D17" s="2">
-        <v>1</v>
+        <v>46000</v>
       </c>
       <c r="E17" s="2">
         <v>0</v>
@@ -11615,8 +11613,7 @@
         <v>37</v>
       </c>
       <c r="D18" s="2">
-        <f>-K15</f>
-        <v>-46000</v>
+        <v>-1</v>
       </c>
       <c r="H18" s="10"/>
       <c r="I18" s="10"/>
@@ -11658,7 +11655,7 @@
         <v>24</v>
       </c>
       <c r="D19" s="2">
-        <v>1</v>
+        <v>50000</v>
       </c>
       <c r="E19" s="2">
         <v>0</v>
@@ -11706,8 +11703,7 @@
         <v>38</v>
       </c>
       <c r="D20" s="2">
-        <f>-K16</f>
-        <v>-50000</v>
+        <v>-1</v>
       </c>
       <c r="F20" s="10"/>
       <c r="G20" s="10"/>
